--- a/threading data.xlsx
+++ b/threading data.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/GitRepos/tsml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57271658-D7F9-CF41-99F1-21F607F8F9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9C66428-657A-9147-818A-05435D513A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360"/>
   </bookViews>
   <sheets>
     <sheet name="timing0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Classifier</t>
   </si>
@@ -49,18 +59,17 @@
     <t>Threads</t>
   </si>
   <si>
-    <t>Original (1)</t>
+    <t>Control (1)</t>
   </si>
   <si>
-    <t>Original temp DTW_DistanceBasic</t>
+    <t>% Improvement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
@@ -540,9 +549,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -617,6 +625,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800"/>
+              <a:t>Average Classify</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:t> Time for FastDTW_1NN Threaded on ChlorineConcentration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -630,7 +668,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -668,25 +706,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>timing0!$A$2:$A$7</c:f>
+              <c:f>timing0!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Original (1)</c:v>
+                  <c:v>Control (1)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Original temp DTW_DistanceBasic</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
@@ -694,27 +726,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timing0!$E$2:$E$7</c:f>
+              <c:f>timing0!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7958414.9919999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23329228.763999999</c:v>
+                  <c:v>5417049.0429999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18397607.276999999</c:v>
+                  <c:v>4853479.5199999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12802350.398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11025165.49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10249191.628</c:v>
+                  <c:v>4389394.0199999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,6 +770,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Number of  threads for classification</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -809,6 +890,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -852,37 +988,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1477,15 +1582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1810,21 +1915,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1846,8 +1952,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1860,19 +1969,23 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>7958414.9919999996</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>30560313570</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>3296560870</v>
       </c>
+      <c r="H2">
+        <f>100*(1-(E2/$E$2))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1883,19 +1996,23 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="2">
-        <v>23329228.763999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>89584238453</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10184747274</v>
+      <c r="E3" s="1">
+        <v>5417049.0429999996</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20801468326</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2645536608</v>
+      </c>
+      <c r="H3">
+        <f>100*(1-(E3/$E$2))</f>
+        <v>31.933066465554326</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1906,19 +2023,23 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>18397607.276999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>70646811943</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9009879379</v>
+      <c r="E4" s="1">
+        <v>4853479.5199999996</v>
+      </c>
+      <c r="F4" s="1">
+        <v>18637361357</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2428275539</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="0">100*(1-(E4/$E$2))</f>
+        <v>39.014495664289427</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1929,64 +2050,24 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="2">
-        <v>12802350.398</v>
-      </c>
-      <c r="F5" s="2">
-        <v>49161025529</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6545417862</v>
+      <c r="E5" s="1">
+        <v>4389394.0199999996</v>
+      </c>
+      <c r="F5" s="1">
+        <v>16855273038</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2450177391</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>44.845876667498118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>11025165.49</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42336635482</v>
-      </c>
-      <c r="G6" s="2">
-        <v>5992640316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10249191.628</v>
-      </c>
-      <c r="F7" s="2">
-        <v>39356895852</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5623489365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/threading data.xlsx
+++ b/threading data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/GitRepos/tsml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9C66428-657A-9147-818A-05435D513A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="timing0" sheetId="1" r:id="rId1"/>
+    <sheet name="G4" sheetId="1" r:id="rId1"/>
+    <sheet name="Pi4" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>Classifier</t>
   </si>
@@ -68,9 +69,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -551,7 +552,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -706,7 +707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>timing0!$A$2:$A$5</c:f>
+              <c:f>'G4'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -726,7 +727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timing0!$E$2:$E$5</c:f>
+              <c:f>'G4'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1032,7 +1033,469 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800"/>
+              <a:t>Average Classify</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:t> Time for FastDTW_1NN Threaded on ChlorineConcentration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pi4'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Control (1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pi4'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>62753960.163999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46290125.556999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36202390.410999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32895006.370999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-867E-8B44-97A2-F111E6DF2150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1720238560"/>
+        <c:axId val="1720239776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1720238560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Number of  threads for classification</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720239776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720239776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720238560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1577,6 +2040,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1602,6 +2570,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F062EB1-E04C-A745-9077-CDB6BE385A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1914,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,4 +3084,166 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B94A552-AF12-E24C-8BC3-E57C16FCA8F4}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>62753960.163999997</v>
+      </c>
+      <c r="F2">
+        <v>240975207030</v>
+      </c>
+      <c r="G2">
+        <v>26749602191</v>
+      </c>
+      <c r="H2">
+        <f>100*(1-(E2/$E$2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>46290125.556999996</v>
+      </c>
+      <c r="F3">
+        <v>177754082140</v>
+      </c>
+      <c r="G3">
+        <v>20934289600</v>
+      </c>
+      <c r="H3">
+        <f>100*(1-(E3/$E$2))</f>
+        <v>26.235530895538272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>36202390.410999998</v>
+      </c>
+      <c r="F4">
+        <v>139017179177</v>
+      </c>
+      <c r="G4">
+        <v>16770163641</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="0">100*(1-(E4/$E$2))</f>
+        <v>42.31058834153356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>32895006.370999999</v>
+      </c>
+      <c r="F5">
+        <v>126316824465</v>
+      </c>
+      <c r="G5">
+        <v>15069337537</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>47.580987263540308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/threading data.xlsx
+++ b/threading data.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/GitRepos/tsml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/UEA OneDrive/OneDrive - University of East Anglia/Year 3/6013Y - Project/tsml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{B95F9B59-DF12-5146-B51A-41C01871281A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="27360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="22760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="G4" sheetId="1" r:id="rId1"/>
-    <sheet name="Pi4" sheetId="3" r:id="rId2"/>
+    <sheet name="G4 (Iteration 1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Pi4 (Iteration 1)" sheetId="3" r:id="rId2"/>
+    <sheet name="Pi4 (TreeSet)" sheetId="6" r:id="rId3"/>
+    <sheet name="Pi4 (TreeMap)" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>Classifier</t>
   </si>
@@ -614,7 +614,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -707,7 +707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'G4'!$A$2:$A$5</c:f>
+              <c:f>'G4 (Iteration 1)'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -727,7 +727,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'G4'!$E$2:$E$5</c:f>
+              <c:f>'G4 (Iteration 1)'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1036,7 +1036,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1129,7 +1129,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pi4'!$A$2:$A$5</c:f>
+              <c:f>'Pi4 (Iteration 1)'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1149,7 +1149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pi4'!$E$2:$E$5</c:f>
+              <c:f>'Pi4 (Iteration 1)'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1171,6 +1171,826 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-867E-8B44-97A2-F111E6DF2150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1720238560"/>
+        <c:axId val="1720239776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1720238560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Number of  threads for classification</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720239776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720239776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720238560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800"/>
+              <a:t>Average Classify</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:t> Time for FastDTW_1NN Threaded on ChlorineConcentration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pi4 (TreeSet)'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Control (1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pi4 (TreeSet)'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C65-344C-AC14-FE7B2BFD22D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1720238560"/>
+        <c:axId val="1720239776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1720238560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Number of  threads for classification</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720239776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1720239776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Time (Nanoseconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1720238560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800"/>
+              <a:t>Average Classify</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+              <a:t> Time for FastDTW_1NN Threaded on ChlorineConcentration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pi4 (TreeMap)'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Control (1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pi4 (TreeMap)'!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BF4-AA42-B447-904AF6AA2101}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1535,6 +2355,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2041,6 +2941,1016 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2607,6 +4517,92 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F062EB1-E04C-A745-9077-CDB6BE385A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EAED60-95B7-2B4B-BA64-7C0B66961BB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F11AF62-4088-CA45-8437-1C39AB4B5D2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2928,7 +4924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -3090,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B94A552-AF12-E24C-8BC3-E57C16FCA8F4}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3246,4 +5242,152 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90D45E1-F17C-1A45-A364-37849249172A}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D9747-39C0-304F-A136-A5D5439D0A7D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/threading data.xlsx
+++ b/threading data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/UEA OneDrive/OneDrive - University of East Anglia/Year 3/6013Y - Project/tsml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{B95F9B59-DF12-5146-B51A-41C01871281A}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00B0BEB7-CB5C-6144-81C4-DED7E7FB57B6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="22760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4 (Iteration 1)" sheetId="1" r:id="rId1"/>
     <sheet name="Pi4 (Iteration 1)" sheetId="3" r:id="rId2"/>
-    <sheet name="Pi4 (TreeSet)" sheetId="6" r:id="rId3"/>
-    <sheet name="Pi4 (TreeMap)" sheetId="7" r:id="rId4"/>
+    <sheet name="Pi4 (TreeMap)" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>Classifier</t>
   </si>
@@ -64,6 +63,15 @@
   </si>
   <si>
     <t>% Improvement</t>
+  </si>
+  <si>
+    <t>3 Cores seems a happy medium, which is useful as gives us a spare core to capture data with…</t>
+  </si>
+  <si>
+    <t>Diminishing returns as final comparison. Dataset size important as overhead setting up threads.</t>
+  </si>
+  <si>
+    <t>Overhead of maintaing the SortedMap</t>
   </si>
 </sst>
 </file>
@@ -1551,416 +1559,6 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pi4 (TreeSet)'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Control (1)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pi4 (TreeSet)'!$E$2:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C65-344C-AC14-FE7B2BFD22D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1720238560"/>
-        <c:axId val="1720239776"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1720238560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
-                  <a:t>Number of  threads for classification</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1720239776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1720239776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
-                  <a:t>Time (Nanoseconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1720238560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800"/>
-              <a:t>Average Classify</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" sz="1800" baseline="0"/>
-              <a:t> Time for FastDTW_1NN Threaded on ChlorineConcentration</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB" sz="1800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
               <c:f>'Pi4 (TreeMap)'!$A$2:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
@@ -1985,6 +1583,18 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>62753960.163999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42034717.853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30599794.943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27441388.873</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2395,46 +2005,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3446,511 +3016,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4540,49 +3605,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EAED60-95B7-2B4B-BA64-7C0B66961BB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5086,8 +4108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B94A552-AF12-E24C-8BC3-E57C16FCA8F4}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5245,11 +4267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90D45E1-F17C-1A45-A364-37849249172A}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D9747-39C0-304F-A136-A5D5439D0A7D}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5291,20 +4313,108 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>62753960.163999997</v>
+      </c>
+      <c r="F2">
+        <v>240975207030</v>
+      </c>
+      <c r="G2">
+        <v>26749602191</v>
+      </c>
+      <c r="H2">
+        <f>100*(1-(E2/$E$2))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>42034717.853</v>
+      </c>
+      <c r="F3">
+        <v>161413316557</v>
+      </c>
+      <c r="G3">
+        <v>18426871459</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="0">100*(1-(E3/$E$2))</f>
+        <v>33.016629160697953</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>30599794.943</v>
+      </c>
+      <c r="F4">
+        <v>117503212580</v>
+      </c>
+      <c r="G4">
+        <v>13580704111</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>51.238463894499908</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>27441388.873</v>
+      </c>
+      <c r="F5">
+        <v>105374933273</v>
+      </c>
+      <c r="G5">
+        <v>12001959858</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>56.271462707237596</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5312,79 +4422,20 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D9747-39C0-304F-A136-A5D5439D0A7D}">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/threading data.xlsx
+++ b/threading data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/UEA OneDrive/OneDrive - University of East Anglia/Year 3/6013Y - Project/tsml/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ostandage/GitRepos/tsml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{3B44101F-9B24-9747-BC99-523905ECEEBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00B0BEB7-CB5C-6144-81C4-DED7E7FB57B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84740801-9404-D14B-92A2-9EB24CFDA902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4120" yWindow="1620" windowWidth="38400" windowHeight="22760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G4 (Iteration 1)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Classifier</t>
   </si>
@@ -72,6 +74,12 @@
   </si>
   <si>
     <t>Overhead of maintaing the SortedMap</t>
+  </si>
+  <si>
+    <t>4 (class)</t>
+  </si>
+  <si>
+    <t>Vars (4)</t>
   </si>
 </sst>
 </file>
@@ -558,9 +566,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -622,7 +631,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1044,7 +1053,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1466,7 +1475,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1559,9 +1568,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Pi4 (TreeMap)'!$A$2:$A$5</c:f>
+              <c:f>'Pi4 (TreeMap)'!$A$2:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Control (1)</c:v>
                 </c:pt>
@@ -1574,15 +1583,18 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vars (4)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Pi4 (TreeMap)'!$E$2:$E$5</c:f>
+              <c:f>'Pi4 (TreeMap)'!$E$2:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>62753960.163999997</c:v>
                 </c:pt>
@@ -1594,6 +1606,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27441388.873</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>26822213.548999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,7 +3962,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4062,7 +4077,7 @@
         <v>2428275539</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="0">100*(1-(E4/$E$2))</f>
+        <f t="shared" ref="H4:H7" si="0">100*(1-(E4/$E$2))</f>
         <v>39.014495664289427</v>
       </c>
     </row>
@@ -4094,9 +4109,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2828352.2450000001</v>
+      </c>
+      <c r="F6">
+        <v>10860872620</v>
+      </c>
+      <c r="G6">
+        <v>1568099091</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>64.460860009899818</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4271,7 +4308,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4359,7 +4396,7 @@
         <v>18426871459</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="0">100*(1-(E3/$E$2))</f>
+        <f t="shared" ref="H3:H6" si="0">100*(1-(E3/$E$2))</f>
         <v>33.016629160697953</v>
       </c>
     </row>
@@ -4418,9 +4455,31 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26822213.548999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>102997300027</v>
+      </c>
+      <c r="G6" s="1">
+        <v>12038206017</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>57.258134022293831</v>
+      </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
